--- a/UE.xlsx
+++ b/UE.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目标列表" sheetId="1" r:id="rId1"/>
     <sheet name="创建目标" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="客户端数据库" sheetId="3" r:id="rId3"/>
+    <sheet name="服务端数据库" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>正在进行的目标</t>
   </si>
@@ -46,6 +47,162 @@
   </si>
   <si>
     <t>创建目标</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>计划完成时间</t>
+  </si>
+  <si>
+    <t>设置进度检查节点</t>
+  </si>
+  <si>
+    <t>检查频率</t>
+  </si>
+  <si>
+    <t>xx天</t>
+  </si>
+  <si>
+    <t>xx小时xx分xx秒</t>
+  </si>
+  <si>
+    <t>提醒时间</t>
+  </si>
+  <si>
+    <t>自定义检查时间</t>
+  </si>
+  <si>
+    <t>与朋友分享</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>节点完成奖励</t>
+  </si>
+  <si>
+    <t>目标达成奖励</t>
+  </si>
+  <si>
+    <t>用户表</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>pass_word</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>第三方账号表</t>
+  </si>
+  <si>
+    <t>third_account</t>
+  </si>
+  <si>
+    <t>wetchat</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>taobao</t>
+  </si>
+  <si>
+    <t>weibo</t>
+  </si>
+  <si>
+    <t>jingdong</t>
+  </si>
+  <si>
+    <t>目标表</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>time_start</t>
+  </si>
+  <si>
+    <t>time_end</t>
+  </si>
+  <si>
+    <t>time_check</t>
+  </si>
+  <si>
+    <t>check_interval</t>
+  </si>
+  <si>
+    <t>accomplished</t>
+  </si>
+  <si>
+    <t>bonus_intv</t>
+  </si>
+  <si>
+    <t>bonus_accom</t>
+  </si>
+  <si>
+    <t>检查表</t>
+  </si>
+  <si>
+    <t>target_intv</t>
+  </si>
+  <si>
+    <t>target_id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>目标确认表</t>
+  </si>
+  <si>
+    <t>target_conform</t>
+  </si>
+  <si>
+    <t>target_intv_id</t>
+  </si>
+  <si>
+    <t>friends_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rewarded </t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>conformed</t>
+  </si>
+  <si>
+    <t>朋友表</t>
+  </si>
+  <si>
+    <t>target_friends</t>
   </si>
 </sst>
 </file>
@@ -53,17 +210,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,18 +238,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,13 +279,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,66 +308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +332,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,192 +389,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -453,6 +603,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -466,17 +627,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -517,8 +667,34 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -533,6 +709,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -560,6 +778,15 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,11 +806,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,30 +852,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,173 +879,218 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -821,24 +1099,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -854,85 +1159,82 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1296,7 +1598,7 @@
   <sheetPr/>
   <dimension ref="D5:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
@@ -1308,436 +1610,436 @@
   <sheetData>
     <row r="5" ht="14.25"/>
     <row r="6" spans="4:12">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="33"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" ht="14.25" spans="4:12">
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="34"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="62"/>
     </row>
     <row r="8" spans="4:12">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="63"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="36"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="4:12">
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="37" t="s">
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="4:12">
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" ht="14.25" spans="4:12">
-      <c r="D12" s="26"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="4:12">
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="35"/>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="4:12">
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="36"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="4:12">
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="37" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="38"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="4:12">
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66"/>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="26"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="68"/>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="41"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="69"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="42"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="70"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="42"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="70"/>
     </row>
     <row r="21" spans="4:12">
-      <c r="D21" s="5"/>
-      <c r="L21" s="8"/>
+      <c r="D21" s="25"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" spans="4:12">
-      <c r="D22" s="5"/>
-      <c r="L22" s="8"/>
+      <c r="D22" s="25"/>
+      <c r="L22" s="35"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="5"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="L23" s="8"/>
+      <c r="D23" s="25"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="L23" s="35"/>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="5"/>
-      <c r="L24" s="8"/>
+      <c r="D24" s="25"/>
+      <c r="L24" s="35"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="5"/>
-      <c r="L25" s="8"/>
+      <c r="D25" s="25"/>
+      <c r="L25" s="35"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="5"/>
-      <c r="L26" s="8"/>
+      <c r="D26" s="25"/>
+      <c r="L26" s="35"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="5"/>
-      <c r="L27" s="8"/>
+      <c r="D27" s="25"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="5"/>
-      <c r="L28" s="8"/>
+      <c r="D28" s="25"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" spans="4:12">
-      <c r="D29" s="5"/>
-      <c r="L29" s="8"/>
+      <c r="D29" s="25"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="5"/>
-      <c r="L30" s="8"/>
+      <c r="D30" s="25"/>
+      <c r="L30" s="35"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="5"/>
-      <c r="L31" s="8"/>
+      <c r="D31" s="25"/>
+      <c r="L31" s="35"/>
     </row>
     <row r="32" spans="4:12">
-      <c r="D32" s="5"/>
-      <c r="L32" s="8"/>
+      <c r="D32" s="25"/>
+      <c r="L32" s="35"/>
     </row>
     <row r="33" spans="4:12">
-      <c r="D33" s="5"/>
-      <c r="L33" s="8"/>
+      <c r="D33" s="25"/>
+      <c r="L33" s="35"/>
     </row>
     <row r="34" spans="4:12">
-      <c r="D34" s="5"/>
-      <c r="L34" s="8"/>
+      <c r="D34" s="25"/>
+      <c r="L34" s="35"/>
     </row>
     <row r="35" spans="4:12">
-      <c r="D35" s="5"/>
-      <c r="L35" s="8"/>
+      <c r="D35" s="25"/>
+      <c r="L35" s="35"/>
     </row>
     <row r="36" spans="4:12">
-      <c r="D36" s="5"/>
-      <c r="L36" s="8"/>
+      <c r="D36" s="25"/>
+      <c r="L36" s="35"/>
     </row>
     <row r="37" spans="4:12">
-      <c r="D37" s="5"/>
-      <c r="L37" s="8"/>
+      <c r="D37" s="25"/>
+      <c r="L37" s="35"/>
     </row>
     <row r="38" spans="4:12">
-      <c r="D38" s="5"/>
-      <c r="L38" s="8"/>
+      <c r="D38" s="25"/>
+      <c r="L38" s="35"/>
     </row>
     <row r="39" spans="4:12">
-      <c r="D39" s="5"/>
-      <c r="L39" s="8"/>
+      <c r="D39" s="25"/>
+      <c r="L39" s="35"/>
     </row>
     <row r="40" spans="4:12">
-      <c r="D40" s="5"/>
-      <c r="L40" s="8"/>
+      <c r="D40" s="25"/>
+      <c r="L40" s="35"/>
     </row>
     <row r="41" spans="4:12">
-      <c r="D41" s="5"/>
-      <c r="L41" s="8"/>
+      <c r="D41" s="25"/>
+      <c r="L41" s="35"/>
     </row>
     <row r="42" spans="4:12">
-      <c r="D42" s="5"/>
-      <c r="L42" s="8"/>
+      <c r="D42" s="25"/>
+      <c r="L42" s="35"/>
     </row>
     <row r="43" spans="4:12">
-      <c r="D43" s="5"/>
-      <c r="L43" s="8"/>
+      <c r="D43" s="25"/>
+      <c r="L43" s="35"/>
     </row>
     <row r="44" spans="4:12">
-      <c r="D44" s="5"/>
-      <c r="L44" s="8"/>
+      <c r="D44" s="25"/>
+      <c r="L44" s="35"/>
     </row>
     <row r="45" spans="4:12">
-      <c r="D45" s="5"/>
-      <c r="L45" s="8"/>
+      <c r="D45" s="25"/>
+      <c r="L45" s="35"/>
     </row>
     <row r="46" spans="4:12">
-      <c r="D46" s="5"/>
-      <c r="L46" s="8"/>
+      <c r="D46" s="25"/>
+      <c r="L46" s="35"/>
     </row>
     <row r="47" spans="4:12">
-      <c r="D47" s="5"/>
-      <c r="L47" s="8"/>
+      <c r="D47" s="25"/>
+      <c r="L47" s="35"/>
     </row>
     <row r="48" spans="4:12">
-      <c r="D48" s="5"/>
-      <c r="L48" s="8"/>
+      <c r="D48" s="25"/>
+      <c r="L48" s="35"/>
     </row>
     <row r="49" spans="4:12">
-      <c r="D49" s="5"/>
-      <c r="L49" s="8"/>
+      <c r="D49" s="25"/>
+      <c r="L49" s="35"/>
     </row>
     <row r="50" spans="4:12">
-      <c r="D50" s="5"/>
-      <c r="L50" s="8"/>
+      <c r="D50" s="25"/>
+      <c r="L50" s="35"/>
     </row>
     <row r="51" spans="4:12">
-      <c r="D51" s="5"/>
-      <c r="L51" s="8"/>
+      <c r="D51" s="25"/>
+      <c r="L51" s="35"/>
     </row>
     <row r="52" spans="4:12">
-      <c r="D52" s="5"/>
-      <c r="L52" s="8"/>
+      <c r="D52" s="25"/>
+      <c r="L52" s="35"/>
     </row>
     <row r="53" spans="4:12">
-      <c r="D53" s="5"/>
-      <c r="L53" s="8"/>
+      <c r="D53" s="25"/>
+      <c r="L53" s="35"/>
     </row>
     <row r="54" spans="4:12">
-      <c r="D54" s="5"/>
-      <c r="L54" s="8"/>
+      <c r="D54" s="25"/>
+      <c r="L54" s="35"/>
     </row>
     <row r="55" spans="4:12">
-      <c r="D55" s="5"/>
-      <c r="L55" s="8"/>
+      <c r="D55" s="25"/>
+      <c r="L55" s="35"/>
     </row>
     <row r="56" spans="4:12">
-      <c r="D56" s="5"/>
-      <c r="L56" s="8"/>
+      <c r="D56" s="25"/>
+      <c r="L56" s="35"/>
     </row>
     <row r="57" spans="4:12">
-      <c r="D57" s="5"/>
-      <c r="L57" s="8"/>
+      <c r="D57" s="25"/>
+      <c r="L57" s="35"/>
     </row>
     <row r="58" spans="4:12">
-      <c r="D58" s="5"/>
-      <c r="L58" s="8"/>
+      <c r="D58" s="25"/>
+      <c r="L58" s="35"/>
     </row>
     <row r="59" spans="4:12">
-      <c r="D59" s="5"/>
-      <c r="L59" s="8"/>
+      <c r="D59" s="25"/>
+      <c r="L59" s="35"/>
     </row>
     <row r="60" spans="4:12">
-      <c r="D60" s="5"/>
-      <c r="L60" s="8"/>
+      <c r="D60" s="25"/>
+      <c r="L60" s="35"/>
     </row>
     <row r="61" spans="4:12">
-      <c r="D61" s="5"/>
-      <c r="L61" s="8"/>
+      <c r="D61" s="25"/>
+      <c r="L61" s="35"/>
     </row>
     <row r="62" spans="4:12">
-      <c r="D62" s="5"/>
-      <c r="L62" s="8"/>
+      <c r="D62" s="25"/>
+      <c r="L62" s="35"/>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="5"/>
-      <c r="L63" s="8"/>
+      <c r="D63" s="25"/>
+      <c r="L63" s="35"/>
     </row>
     <row r="64" spans="4:12">
-      <c r="D64" s="5"/>
-      <c r="L64" s="8"/>
+      <c r="D64" s="25"/>
+      <c r="L64" s="35"/>
     </row>
     <row r="65" spans="4:12">
-      <c r="D65" s="5"/>
-      <c r="L65" s="8"/>
+      <c r="D65" s="25"/>
+      <c r="L65" s="35"/>
     </row>
     <row r="66" spans="4:12">
-      <c r="D66" s="5"/>
-      <c r="L66" s="8"/>
+      <c r="D66" s="25"/>
+      <c r="L66" s="35"/>
     </row>
     <row r="67" spans="4:12">
-      <c r="D67" s="5"/>
-      <c r="L67" s="8"/>
+      <c r="D67" s="25"/>
+      <c r="L67" s="35"/>
     </row>
     <row r="68" spans="4:12">
-      <c r="D68" s="5"/>
-      <c r="L68" s="8"/>
+      <c r="D68" s="25"/>
+      <c r="L68" s="35"/>
     </row>
     <row r="69" spans="4:12">
-      <c r="D69" s="5"/>
-      <c r="L69" s="8"/>
+      <c r="D69" s="25"/>
+      <c r="L69" s="35"/>
     </row>
     <row r="70" spans="4:12">
-      <c r="D70" s="5"/>
-      <c r="L70" s="8"/>
+      <c r="D70" s="25"/>
+      <c r="L70" s="35"/>
     </row>
     <row r="71" spans="4:12">
-      <c r="D71" s="5"/>
-      <c r="L71" s="8"/>
+      <c r="D71" s="25"/>
+      <c r="L71" s="35"/>
     </row>
     <row r="72" spans="4:12">
-      <c r="D72" s="5"/>
-      <c r="L72" s="8"/>
+      <c r="D72" s="25"/>
+      <c r="L72" s="35"/>
     </row>
     <row r="73" spans="4:12">
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4" t="s">
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4" t="s">
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K73" s="4"/>
-      <c r="L73" s="7"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="34"/>
     </row>
     <row r="74" spans="4:12">
-      <c r="D74" s="3"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="7"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="34"/>
     </row>
     <row r="75" ht="14.25" spans="4:12">
-      <c r="D75" s="43"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="45"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1763,398 +2065,531 @@
   <sheetPr/>
   <dimension ref="C3:M89"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" ht="14.25"/>
     <row r="4" spans="3:13">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="6"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="7"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="3:13">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="7"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="5"/>
-      <c r="M7" s="8"/>
+      <c r="C7" s="25"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="5"/>
-      <c r="M8" s="8"/>
+      <c r="C8" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="3:13">
-      <c r="C9" s="5"/>
-      <c r="M9" s="8"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="3:13">
-      <c r="C10" s="5"/>
-      <c r="M10" s="8"/>
+      <c r="C10" s="25"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="3:13">
-      <c r="C11" s="5"/>
-      <c r="M11" s="8"/>
+      <c r="C11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="5"/>
-      <c r="M12" s="8"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="M12" s="35"/>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="5"/>
-      <c r="M13" s="8"/>
+      <c r="C13" s="25"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="3:13">
-      <c r="C14" s="5"/>
-      <c r="M14" s="8"/>
+      <c r="C14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="M14" s="35"/>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="5"/>
-      <c r="M15" s="8"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="3:13">
-      <c r="C16" s="5"/>
-      <c r="M16" s="8"/>
+      <c r="C16" s="25"/>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="5"/>
-      <c r="M17" s="8"/>
+      <c r="C17" s="4"/>
+      <c r="M17" s="35"/>
     </row>
     <row r="18" spans="3:13">
-      <c r="C18" s="5"/>
-      <c r="M18" s="8"/>
+      <c r="C18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="3:13">
-      <c r="C19" s="5"/>
-      <c r="M19" s="8"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="37"/>
     </row>
     <row r="20" spans="3:13">
-      <c r="C20" s="5"/>
-      <c r="M20" s="8"/>
+      <c r="C20" s="4"/>
+      <c r="M20" s="35"/>
     </row>
     <row r="21" spans="3:13">
-      <c r="C21" s="5"/>
-      <c r="M21" s="8"/>
+      <c r="C21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="M21" s="35"/>
     </row>
     <row r="22" spans="3:13">
-      <c r="C22" s="5"/>
-      <c r="M22" s="8"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="M22" s="35"/>
     </row>
     <row r="23" spans="3:13">
-      <c r="C23" s="5"/>
-      <c r="M23" s="8"/>
+      <c r="C23" s="25"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="5"/>
-      <c r="M24" s="8"/>
+      <c r="C24" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="M24" s="35"/>
     </row>
     <row r="25" spans="3:13">
-      <c r="C25" s="5"/>
-      <c r="M25" s="8"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="M25" s="35"/>
     </row>
     <row r="26" spans="3:13">
-      <c r="C26" s="5"/>
-      <c r="M26" s="8"/>
+      <c r="C26" s="4"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="5"/>
-      <c r="M27" s="8"/>
+      <c r="C27" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="M27" s="35"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="5"/>
-      <c r="M28" s="8"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="M28" s="35"/>
     </row>
     <row r="29" spans="3:13">
-      <c r="C29" s="5"/>
-      <c r="M29" s="8"/>
+      <c r="C29" s="4"/>
+      <c r="M29" s="35"/>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="5"/>
-      <c r="M30" s="8"/>
+      <c r="C30" s="4"/>
+      <c r="M30" s="35"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="5"/>
-      <c r="M31" s="8"/>
+      <c r="C31" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="M31" s="35"/>
     </row>
     <row r="32" spans="3:13">
-      <c r="C32" s="5"/>
-      <c r="M32" s="8"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="M32" s="35"/>
     </row>
     <row r="33" spans="3:13">
-      <c r="C33" s="5"/>
-      <c r="M33" s="8"/>
+      <c r="C33" s="25"/>
+      <c r="M33" s="35"/>
     </row>
     <row r="34" spans="3:13">
-      <c r="C34" s="5"/>
-      <c r="M34" s="8"/>
+      <c r="C34" s="25"/>
+      <c r="M34" s="35"/>
     </row>
     <row r="35" spans="3:13">
-      <c r="C35" s="5"/>
-      <c r="M35" s="8"/>
+      <c r="C35" s="25"/>
+      <c r="M35" s="35"/>
     </row>
     <row r="36" spans="3:13">
-      <c r="C36" s="5"/>
-      <c r="M36" s="8"/>
+      <c r="C36" s="25"/>
+      <c r="M36" s="35"/>
     </row>
     <row r="37" spans="3:13">
-      <c r="C37" s="5"/>
-      <c r="M37" s="8"/>
+      <c r="C37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="37"/>
     </row>
     <row r="38" spans="3:13">
-      <c r="C38" s="5"/>
-      <c r="M38" s="8"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="37"/>
     </row>
     <row r="39" spans="3:13">
-      <c r="C39" s="5"/>
-      <c r="M39" s="8"/>
+      <c r="C39" s="25"/>
+      <c r="M39" s="35"/>
     </row>
     <row r="40" spans="3:13">
-      <c r="C40" s="5"/>
-      <c r="M40" s="8"/>
+      <c r="C40" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="M40" s="35"/>
     </row>
     <row r="41" spans="3:13">
-      <c r="C41" s="5"/>
-      <c r="M41" s="8"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="M41" s="35"/>
     </row>
     <row r="42" spans="3:13">
-      <c r="C42" s="5"/>
-      <c r="M42" s="8"/>
+      <c r="C42" s="25"/>
+      <c r="M42" s="35"/>
     </row>
     <row r="43" spans="3:13">
-      <c r="C43" s="5"/>
-      <c r="M43" s="8"/>
+      <c r="C43" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="M43" s="35"/>
     </row>
     <row r="44" spans="3:13">
-      <c r="C44" s="5"/>
-      <c r="M44" s="8"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="M44" s="35"/>
     </row>
     <row r="45" spans="3:13">
-      <c r="C45" s="5"/>
-      <c r="M45" s="8"/>
+      <c r="C45" s="25"/>
+      <c r="M45" s="35"/>
     </row>
     <row r="46" spans="3:13">
-      <c r="C46" s="5"/>
-      <c r="M46" s="8"/>
+      <c r="C46" s="25"/>
+      <c r="M46" s="35"/>
     </row>
     <row r="47" spans="3:13">
-      <c r="C47" s="5"/>
-      <c r="M47" s="8"/>
+      <c r="C47" s="25"/>
+      <c r="M47" s="35"/>
     </row>
     <row r="48" spans="3:13">
-      <c r="C48" s="5"/>
-      <c r="M48" s="8"/>
+      <c r="C48" s="25"/>
+      <c r="M48" s="35"/>
     </row>
     <row r="49" spans="3:13">
-      <c r="C49" s="5"/>
-      <c r="M49" s="8"/>
+      <c r="C49" s="25"/>
+      <c r="M49" s="35"/>
     </row>
     <row r="50" spans="3:13">
-      <c r="C50" s="5"/>
-      <c r="M50" s="8"/>
+      <c r="C50" s="25"/>
+      <c r="M50" s="35"/>
     </row>
     <row r="51" spans="3:13">
-      <c r="C51" s="5"/>
-      <c r="M51" s="8"/>
+      <c r="C51" s="25"/>
+      <c r="M51" s="35"/>
     </row>
     <row r="52" spans="3:13">
-      <c r="C52" s="5"/>
-      <c r="M52" s="8"/>
+      <c r="C52" s="25"/>
+      <c r="M52" s="35"/>
     </row>
     <row r="53" spans="3:13">
-      <c r="C53" s="5"/>
-      <c r="M53" s="8"/>
+      <c r="C53" s="25"/>
+      <c r="M53" s="35"/>
     </row>
     <row r="54" spans="3:13">
-      <c r="C54" s="5"/>
-      <c r="M54" s="8"/>
+      <c r="C54" s="25"/>
+      <c r="M54" s="35"/>
     </row>
     <row r="55" spans="3:13">
-      <c r="C55" s="5"/>
-      <c r="M55" s="8"/>
+      <c r="C55" s="25"/>
+      <c r="M55" s="35"/>
     </row>
     <row r="56" spans="3:13">
-      <c r="C56" s="5"/>
-      <c r="M56" s="8"/>
+      <c r="C56" s="25"/>
+      <c r="M56" s="35"/>
     </row>
     <row r="57" spans="3:13">
-      <c r="C57" s="5"/>
-      <c r="M57" s="8"/>
+      <c r="C57" s="25"/>
+      <c r="M57" s="35"/>
     </row>
     <row r="58" spans="3:13">
-      <c r="C58" s="5"/>
-      <c r="M58" s="8"/>
+      <c r="C58" s="25"/>
+      <c r="M58" s="35"/>
     </row>
     <row r="59" spans="3:13">
-      <c r="C59" s="5"/>
-      <c r="M59" s="8"/>
+      <c r="C59" s="25"/>
+      <c r="M59" s="35"/>
     </row>
     <row r="60" spans="3:13">
-      <c r="C60" s="5"/>
-      <c r="M60" s="8"/>
+      <c r="C60" s="25"/>
+      <c r="M60" s="35"/>
     </row>
     <row r="61" spans="3:13">
-      <c r="C61" s="5"/>
-      <c r="M61" s="8"/>
+      <c r="C61" s="25"/>
+      <c r="M61" s="35"/>
     </row>
     <row r="62" spans="3:13">
-      <c r="C62" s="5"/>
-      <c r="M62" s="8"/>
+      <c r="C62" s="25"/>
+      <c r="M62" s="35"/>
     </row>
     <row r="63" spans="3:13">
-      <c r="C63" s="5"/>
-      <c r="M63" s="8"/>
+      <c r="C63" s="25"/>
+      <c r="M63" s="35"/>
     </row>
     <row r="64" spans="3:13">
-      <c r="C64" s="5"/>
-      <c r="M64" s="8"/>
+      <c r="C64" s="25"/>
+      <c r="M64" s="35"/>
     </row>
     <row r="65" spans="3:13">
-      <c r="C65" s="5"/>
-      <c r="M65" s="8"/>
+      <c r="C65" s="25"/>
+      <c r="M65" s="35"/>
     </row>
     <row r="66" spans="3:13">
-      <c r="C66" s="5"/>
-      <c r="M66" s="8"/>
+      <c r="C66" s="25"/>
+      <c r="M66" s="35"/>
     </row>
     <row r="67" spans="3:13">
-      <c r="C67" s="5"/>
-      <c r="M67" s="8"/>
+      <c r="C67" s="25"/>
+      <c r="M67" s="35"/>
     </row>
     <row r="68" spans="3:13">
-      <c r="C68" s="5"/>
-      <c r="M68" s="8"/>
+      <c r="C68" s="25"/>
+      <c r="M68" s="35"/>
     </row>
     <row r="69" spans="3:13">
-      <c r="C69" s="5"/>
-      <c r="M69" s="8"/>
+      <c r="C69" s="25"/>
+      <c r="M69" s="35"/>
     </row>
     <row r="70" spans="3:13">
-      <c r="C70" s="5"/>
-      <c r="M70" s="8"/>
+      <c r="C70" s="25"/>
+      <c r="M70" s="35"/>
     </row>
     <row r="71" spans="3:13">
-      <c r="C71" s="5"/>
-      <c r="M71" s="8"/>
+      <c r="C71" s="25"/>
+      <c r="M71" s="35"/>
     </row>
     <row r="72" spans="3:13">
-      <c r="C72" s="5"/>
-      <c r="M72" s="8"/>
+      <c r="C72" s="25"/>
+      <c r="M72" s="35"/>
     </row>
     <row r="73" spans="3:13">
-      <c r="C73" s="5"/>
-      <c r="M73" s="8"/>
+      <c r="C73" s="25"/>
+      <c r="M73" s="35"/>
     </row>
     <row r="74" spans="3:13">
-      <c r="C74" s="5"/>
-      <c r="M74" s="8"/>
+      <c r="C74" s="25"/>
+      <c r="M74" s="35"/>
     </row>
     <row r="75" spans="3:13">
-      <c r="C75" s="5"/>
-      <c r="M75" s="8"/>
+      <c r="C75" s="25"/>
+      <c r="M75" s="35"/>
     </row>
     <row r="76" spans="3:13">
-      <c r="C76" s="5"/>
-      <c r="M76" s="8"/>
+      <c r="C76" s="25"/>
+      <c r="M76" s="35"/>
     </row>
     <row r="77" spans="3:13">
-      <c r="C77" s="5"/>
-      <c r="M77" s="8"/>
+      <c r="C77" s="25"/>
+      <c r="M77" s="35"/>
     </row>
     <row r="78" spans="3:13">
-      <c r="C78" s="5"/>
-      <c r="M78" s="8"/>
+      <c r="C78" s="25"/>
+      <c r="M78" s="35"/>
     </row>
     <row r="79" spans="3:13">
-      <c r="C79" s="5"/>
-      <c r="M79" s="8"/>
+      <c r="C79" s="25"/>
+      <c r="M79" s="35"/>
     </row>
     <row r="80" spans="3:13">
-      <c r="C80" s="5"/>
-      <c r="M80" s="8"/>
+      <c r="C80" s="25"/>
+      <c r="M80" s="35"/>
     </row>
     <row r="81" spans="3:13">
-      <c r="C81" s="5"/>
-      <c r="M81" s="8"/>
+      <c r="C81" s="25"/>
+      <c r="M81" s="35"/>
     </row>
     <row r="82" spans="3:13">
-      <c r="C82" s="5"/>
-      <c r="M82" s="8"/>
+      <c r="C82" s="25"/>
+      <c r="M82" s="35"/>
     </row>
     <row r="83" spans="3:13">
-      <c r="C83" s="5"/>
-      <c r="M83" s="8"/>
+      <c r="C83" s="25"/>
+      <c r="M83" s="35"/>
     </row>
     <row r="84" spans="3:13">
-      <c r="C84" s="5"/>
-      <c r="M84" s="8"/>
+      <c r="C84" s="25"/>
+      <c r="M84" s="35"/>
     </row>
     <row r="85" spans="3:13">
-      <c r="C85" s="5"/>
-      <c r="M85" s="8"/>
+      <c r="C85" s="25"/>
+      <c r="M85" s="35"/>
     </row>
     <row r="86" spans="3:13">
-      <c r="C86" s="5"/>
-      <c r="M86" s="8"/>
+      <c r="C86" s="25"/>
+      <c r="M86" s="35"/>
     </row>
     <row r="87" spans="3:13">
-      <c r="C87" s="5"/>
-      <c r="M87" s="8"/>
+      <c r="C87" s="25"/>
+      <c r="M87" s="35"/>
     </row>
     <row r="88" spans="3:13">
-      <c r="C88" s="5"/>
-      <c r="M88" s="8"/>
+      <c r="C88" s="25"/>
+      <c r="M88" s="35"/>
     </row>
     <row r="89" ht="14.25" spans="3:13">
-      <c r="C89" s="9"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="11"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="20">
     <mergeCell ref="C4:M6"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="C18:M19"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="C37:M38"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:F44"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2165,16 +2600,273 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="B1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="2:3">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="4"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:5">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:3">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="4"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="11" ht="14.25" spans="2:3">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" ht="14.25" spans="2:12">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="16" ht="14.25" spans="2:3">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="2:6">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="20" ht="14.25" spans="2:3">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="2:7">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="25" ht="14.25" spans="2:3">
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="2:4">
+      <c r="B26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/UE.xlsx
+++ b/UE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目标列表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>正在进行的目标</t>
   </si>
@@ -106,12 +106,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>第三方账号表</t>
-  </si>
-  <si>
-    <t>third_account</t>
-  </si>
-  <si>
     <t>wetchat</t>
   </si>
   <si>
@@ -127,6 +121,9 @@
     <t>jingdong</t>
   </si>
   <si>
+    <t>nick_name</t>
+  </si>
+  <si>
     <t>目标表</t>
   </si>
   <si>
@@ -157,52 +154,67 @@
     <t>accomplished</t>
   </si>
   <si>
+    <t>bonus_devid</t>
+  </si>
+  <si>
+    <t>bonus_accom</t>
+  </si>
+  <si>
+    <t>分解目标表</t>
+  </si>
+  <si>
+    <t>target_devid</t>
+  </si>
+  <si>
+    <t>target_id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>分解目标确认表</t>
+  </si>
+  <si>
+    <t>target_conform</t>
+  </si>
+  <si>
+    <t>target_devid_id</t>
+  </si>
+  <si>
+    <t>friends_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rewarded </t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>conformed</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>目标好友表</t>
+  </si>
+  <si>
+    <t>target_friends</t>
+  </si>
+  <si>
+    <t>好友表</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>friends_user_id</t>
+  </si>
+  <si>
     <t>bonus_intv</t>
-  </si>
-  <si>
-    <t>bonus_accom</t>
-  </si>
-  <si>
-    <t>检查表</t>
-  </si>
-  <si>
-    <t>target_intv</t>
-  </si>
-  <si>
-    <t>target_id</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>目标确认表</t>
-  </si>
-  <si>
-    <t>target_conform</t>
-  </si>
-  <si>
-    <t>target_intv_id</t>
-  </si>
-  <si>
-    <t>friends_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rewarded </t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>conformed</t>
-  </si>
-  <si>
-    <t>朋友表</t>
-  </si>
-  <si>
-    <t>target_friends</t>
   </si>
 </sst>
 </file>
@@ -210,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -224,15 +236,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +261,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -261,54 +268,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,30 +305,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,12 +319,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -389,187 +401,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,30 +615,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -656,6 +648,17 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -697,6 +700,15 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -786,7 +798,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,6 +814,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,8 +860,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,30 +891,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -887,10 +899,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,137 +911,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,6 +1054,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1054,43 +1069,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1099,157 +1114,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1610,436 +1601,436 @@
   <sheetData>
     <row r="5" ht="14.25"/>
     <row r="6" spans="4:12">
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="61"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" ht="14.25" spans="4:12">
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="62"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="4:12">
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="46" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="63"/>
+      <c r="L8" s="56"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="64"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="4:12">
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="65" t="s">
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="66"/>
+      <c r="L10" s="59"/>
     </row>
     <row r="11" spans="4:12">
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="66"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59"/>
     </row>
     <row r="12" ht="14.25" spans="4:12">
-      <c r="D12" s="55"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
     </row>
     <row r="13" spans="4:12">
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="46" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="63"/>
+      <c r="L13" s="56"/>
     </row>
     <row r="14" spans="4:12">
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="64"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="4:12">
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="65" t="s">
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="66"/>
+      <c r="L15" s="59"/>
     </row>
     <row r="16" spans="4:12">
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="66"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="55"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="68"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="69"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="62"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="70"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="63"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="70"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="4:12">
-      <c r="D21" s="25"/>
-      <c r="L21" s="35"/>
+      <c r="D21" s="3"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="4:12">
-      <c r="D22" s="25"/>
-      <c r="L22" s="35"/>
+      <c r="D22" s="3"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="25"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="L23" s="35"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="25"/>
-      <c r="L24" s="35"/>
+      <c r="D24" s="3"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="25"/>
-      <c r="L25" s="35"/>
+      <c r="D25" s="3"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="25"/>
-      <c r="L26" s="35"/>
+      <c r="D26" s="3"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="25"/>
-      <c r="L27" s="35"/>
+      <c r="D27" s="3"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="25"/>
-      <c r="L28" s="35"/>
+      <c r="D28" s="3"/>
+      <c r="L28" s="21"/>
     </row>
     <row r="29" spans="4:12">
-      <c r="D29" s="25"/>
-      <c r="L29" s="35"/>
+      <c r="D29" s="3"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="25"/>
-      <c r="L30" s="35"/>
+      <c r="D30" s="3"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="25"/>
-      <c r="L31" s="35"/>
+      <c r="D31" s="3"/>
+      <c r="L31" s="21"/>
     </row>
     <row r="32" spans="4:12">
-      <c r="D32" s="25"/>
-      <c r="L32" s="35"/>
+      <c r="D32" s="3"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="4:12">
-      <c r="D33" s="25"/>
-      <c r="L33" s="35"/>
+      <c r="D33" s="3"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="4:12">
-      <c r="D34" s="25"/>
-      <c r="L34" s="35"/>
+      <c r="D34" s="3"/>
+      <c r="L34" s="21"/>
     </row>
     <row r="35" spans="4:12">
-      <c r="D35" s="25"/>
-      <c r="L35" s="35"/>
+      <c r="D35" s="3"/>
+      <c r="L35" s="21"/>
     </row>
     <row r="36" spans="4:12">
-      <c r="D36" s="25"/>
-      <c r="L36" s="35"/>
+      <c r="D36" s="3"/>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" spans="4:12">
-      <c r="D37" s="25"/>
-      <c r="L37" s="35"/>
+      <c r="D37" s="3"/>
+      <c r="L37" s="21"/>
     </row>
     <row r="38" spans="4:12">
-      <c r="D38" s="25"/>
-      <c r="L38" s="35"/>
+      <c r="D38" s="3"/>
+      <c r="L38" s="21"/>
     </row>
     <row r="39" spans="4:12">
-      <c r="D39" s="25"/>
-      <c r="L39" s="35"/>
+      <c r="D39" s="3"/>
+      <c r="L39" s="21"/>
     </row>
     <row r="40" spans="4:12">
-      <c r="D40" s="25"/>
-      <c r="L40" s="35"/>
+      <c r="D40" s="3"/>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="4:12">
-      <c r="D41" s="25"/>
-      <c r="L41" s="35"/>
+      <c r="D41" s="3"/>
+      <c r="L41" s="21"/>
     </row>
     <row r="42" spans="4:12">
-      <c r="D42" s="25"/>
-      <c r="L42" s="35"/>
+      <c r="D42" s="3"/>
+      <c r="L42" s="21"/>
     </row>
     <row r="43" spans="4:12">
-      <c r="D43" s="25"/>
-      <c r="L43" s="35"/>
+      <c r="D43" s="3"/>
+      <c r="L43" s="21"/>
     </row>
     <row r="44" spans="4:12">
-      <c r="D44" s="25"/>
-      <c r="L44" s="35"/>
+      <c r="D44" s="3"/>
+      <c r="L44" s="21"/>
     </row>
     <row r="45" spans="4:12">
-      <c r="D45" s="25"/>
-      <c r="L45" s="35"/>
+      <c r="D45" s="3"/>
+      <c r="L45" s="21"/>
     </row>
     <row r="46" spans="4:12">
-      <c r="D46" s="25"/>
-      <c r="L46" s="35"/>
+      <c r="D46" s="3"/>
+      <c r="L46" s="21"/>
     </row>
     <row r="47" spans="4:12">
-      <c r="D47" s="25"/>
-      <c r="L47" s="35"/>
+      <c r="D47" s="3"/>
+      <c r="L47" s="21"/>
     </row>
     <row r="48" spans="4:12">
-      <c r="D48" s="25"/>
-      <c r="L48" s="35"/>
+      <c r="D48" s="3"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="4:12">
-      <c r="D49" s="25"/>
-      <c r="L49" s="35"/>
+      <c r="D49" s="3"/>
+      <c r="L49" s="21"/>
     </row>
     <row r="50" spans="4:12">
-      <c r="D50" s="25"/>
-      <c r="L50" s="35"/>
+      <c r="D50" s="3"/>
+      <c r="L50" s="21"/>
     </row>
     <row r="51" spans="4:12">
-      <c r="D51" s="25"/>
-      <c r="L51" s="35"/>
+      <c r="D51" s="3"/>
+      <c r="L51" s="21"/>
     </row>
     <row r="52" spans="4:12">
-      <c r="D52" s="25"/>
-      <c r="L52" s="35"/>
+      <c r="D52" s="3"/>
+      <c r="L52" s="21"/>
     </row>
     <row r="53" spans="4:12">
-      <c r="D53" s="25"/>
-      <c r="L53" s="35"/>
+      <c r="D53" s="3"/>
+      <c r="L53" s="21"/>
     </row>
     <row r="54" spans="4:12">
-      <c r="D54" s="25"/>
-      <c r="L54" s="35"/>
+      <c r="D54" s="3"/>
+      <c r="L54" s="21"/>
     </row>
     <row r="55" spans="4:12">
-      <c r="D55" s="25"/>
-      <c r="L55" s="35"/>
+      <c r="D55" s="3"/>
+      <c r="L55" s="21"/>
     </row>
     <row r="56" spans="4:12">
-      <c r="D56" s="25"/>
-      <c r="L56" s="35"/>
+      <c r="D56" s="3"/>
+      <c r="L56" s="21"/>
     </row>
     <row r="57" spans="4:12">
-      <c r="D57" s="25"/>
-      <c r="L57" s="35"/>
+      <c r="D57" s="3"/>
+      <c r="L57" s="21"/>
     </row>
     <row r="58" spans="4:12">
-      <c r="D58" s="25"/>
-      <c r="L58" s="35"/>
+      <c r="D58" s="3"/>
+      <c r="L58" s="21"/>
     </row>
     <row r="59" spans="4:12">
-      <c r="D59" s="25"/>
-      <c r="L59" s="35"/>
+      <c r="D59" s="3"/>
+      <c r="L59" s="21"/>
     </row>
     <row r="60" spans="4:12">
-      <c r="D60" s="25"/>
-      <c r="L60" s="35"/>
+      <c r="D60" s="3"/>
+      <c r="L60" s="21"/>
     </row>
     <row r="61" spans="4:12">
-      <c r="D61" s="25"/>
-      <c r="L61" s="35"/>
+      <c r="D61" s="3"/>
+      <c r="L61" s="21"/>
     </row>
     <row r="62" spans="4:12">
-      <c r="D62" s="25"/>
-      <c r="L62" s="35"/>
+      <c r="D62" s="3"/>
+      <c r="L62" s="21"/>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="25"/>
-      <c r="L63" s="35"/>
+      <c r="D63" s="3"/>
+      <c r="L63" s="21"/>
     </row>
     <row r="64" spans="4:12">
-      <c r="D64" s="25"/>
-      <c r="L64" s="35"/>
+      <c r="D64" s="3"/>
+      <c r="L64" s="21"/>
     </row>
     <row r="65" spans="4:12">
-      <c r="D65" s="25"/>
-      <c r="L65" s="35"/>
+      <c r="D65" s="3"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="4:12">
-      <c r="D66" s="25"/>
-      <c r="L66" s="35"/>
+      <c r="D66" s="3"/>
+      <c r="L66" s="21"/>
     </row>
     <row r="67" spans="4:12">
-      <c r="D67" s="25"/>
-      <c r="L67" s="35"/>
+      <c r="D67" s="3"/>
+      <c r="L67" s="21"/>
     </row>
     <row r="68" spans="4:12">
-      <c r="D68" s="25"/>
-      <c r="L68" s="35"/>
+      <c r="D68" s="3"/>
+      <c r="L68" s="21"/>
     </row>
     <row r="69" spans="4:12">
-      <c r="D69" s="25"/>
-      <c r="L69" s="35"/>
+      <c r="D69" s="3"/>
+      <c r="L69" s="21"/>
     </row>
     <row r="70" spans="4:12">
-      <c r="D70" s="25"/>
-      <c r="L70" s="35"/>
+      <c r="D70" s="3"/>
+      <c r="L70" s="21"/>
     </row>
     <row r="71" spans="4:12">
-      <c r="D71" s="25"/>
-      <c r="L71" s="35"/>
+      <c r="D71" s="3"/>
+      <c r="L71" s="21"/>
     </row>
     <row r="72" spans="4:12">
-      <c r="D72" s="25"/>
-      <c r="L72" s="35"/>
+      <c r="D72" s="3"/>
+      <c r="L72" s="21"/>
     </row>
     <row r="73" spans="4:12">
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24" t="s">
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24" t="s">
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K73" s="24"/>
-      <c r="L73" s="34"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="32"/>
     </row>
     <row r="74" spans="4:12">
-      <c r="D74" s="23"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="34"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="32"/>
     </row>
     <row r="75" ht="14.25" spans="4:12">
-      <c r="D75" s="71"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72"/>
-      <c r="L75" s="73"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2073,500 +2064,500 @@
   <sheetData>
     <row r="3" ht="14.25"/>
     <row r="4" spans="3:13">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="33"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="34"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="3:13">
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="34"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="25"/>
-      <c r="M7" s="35"/>
+      <c r="C7" s="3"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="M8" s="35"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="3:13">
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="M9" s="35"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="3:13">
-      <c r="C10" s="25"/>
-      <c r="M10" s="35"/>
+      <c r="C10" s="3"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="3:13">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="M11" s="35"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="M12" s="35"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="25"/>
-      <c r="M13" s="35"/>
+      <c r="C13" s="3"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="3:13">
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="M14" s="35"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="M15" s="35"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="3:13">
-      <c r="C16" s="25"/>
-      <c r="M16" s="35"/>
+      <c r="C16" s="3"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="4"/>
-      <c r="M17" s="35"/>
+      <c r="C17" s="3"/>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" spans="3:13">
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="36"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="3:13">
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="37"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="3:13">
-      <c r="C20" s="4"/>
-      <c r="M20" s="35"/>
+      <c r="C20" s="3"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="3:13">
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="M21" s="35"/>
+      <c r="H21" s="25"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="3:13">
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="M22" s="35"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="3:13">
-      <c r="C23" s="25"/>
-      <c r="M23" s="35"/>
+      <c r="C23" s="3"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="M24" s="35"/>
+      <c r="F24" s="25"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="3:13">
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="M25" s="35"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="M25" s="21"/>
     </row>
     <row r="26" spans="3:13">
-      <c r="C26" s="4"/>
-      <c r="M26" s="35"/>
+      <c r="C26" s="3"/>
+      <c r="M26" s="21"/>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="M27" s="35"/>
+      <c r="D27" s="25"/>
+      <c r="M27" s="21"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="M28" s="35"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="3:13">
-      <c r="C29" s="4"/>
-      <c r="M29" s="35"/>
+      <c r="C29" s="3"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="4"/>
-      <c r="M30" s="35"/>
+      <c r="C30" s="3"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="M31" s="35"/>
+      <c r="D31" s="25"/>
+      <c r="M31" s="21"/>
     </row>
     <row r="32" spans="3:13">
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="M32" s="35"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="M32" s="21"/>
     </row>
     <row r="33" spans="3:13">
-      <c r="C33" s="25"/>
-      <c r="M33" s="35"/>
+      <c r="C33" s="3"/>
+      <c r="M33" s="21"/>
     </row>
     <row r="34" spans="3:13">
-      <c r="C34" s="25"/>
-      <c r="M34" s="35"/>
+      <c r="C34" s="3"/>
+      <c r="M34" s="21"/>
     </row>
     <row r="35" spans="3:13">
-      <c r="C35" s="25"/>
-      <c r="M35" s="35"/>
+      <c r="C35" s="3"/>
+      <c r="M35" s="21"/>
     </row>
     <row r="36" spans="3:13">
-      <c r="C36" s="25"/>
-      <c r="M36" s="35"/>
+      <c r="C36" s="3"/>
+      <c r="M36" s="21"/>
     </row>
     <row r="37" spans="3:13">
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="37"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="3:13">
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="37"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="34"/>
     </row>
     <row r="39" spans="3:13">
-      <c r="C39" s="25"/>
-      <c r="M39" s="35"/>
+      <c r="C39" s="3"/>
+      <c r="M39" s="21"/>
     </row>
     <row r="40" spans="3:13">
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="M40" s="35"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="M40" s="21"/>
     </row>
     <row r="41" spans="3:13">
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="M41" s="35"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="M41" s="21"/>
     </row>
     <row r="42" spans="3:13">
-      <c r="C42" s="25"/>
-      <c r="M42" s="35"/>
+      <c r="C42" s="3"/>
+      <c r="M42" s="21"/>
     </row>
     <row r="43" spans="3:13">
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="M43" s="35"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="M43" s="21"/>
     </row>
     <row r="44" spans="3:13">
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="M44" s="35"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="M44" s="21"/>
     </row>
     <row r="45" spans="3:13">
-      <c r="C45" s="25"/>
-      <c r="M45" s="35"/>
+      <c r="C45" s="3"/>
+      <c r="M45" s="21"/>
     </row>
     <row r="46" spans="3:13">
-      <c r="C46" s="25"/>
-      <c r="M46" s="35"/>
+      <c r="C46" s="3"/>
+      <c r="M46" s="21"/>
     </row>
     <row r="47" spans="3:13">
-      <c r="C47" s="25"/>
-      <c r="M47" s="35"/>
+      <c r="C47" s="3"/>
+      <c r="M47" s="21"/>
     </row>
     <row r="48" spans="3:13">
-      <c r="C48" s="25"/>
-      <c r="M48" s="35"/>
+      <c r="C48" s="3"/>
+      <c r="M48" s="21"/>
     </row>
     <row r="49" spans="3:13">
-      <c r="C49" s="25"/>
-      <c r="M49" s="35"/>
+      <c r="C49" s="3"/>
+      <c r="M49" s="21"/>
     </row>
     <row r="50" spans="3:13">
-      <c r="C50" s="25"/>
-      <c r="M50" s="35"/>
+      <c r="C50" s="3"/>
+      <c r="M50" s="21"/>
     </row>
     <row r="51" spans="3:13">
-      <c r="C51" s="25"/>
-      <c r="M51" s="35"/>
+      <c r="C51" s="3"/>
+      <c r="M51" s="21"/>
     </row>
     <row r="52" spans="3:13">
-      <c r="C52" s="25"/>
-      <c r="M52" s="35"/>
+      <c r="C52" s="3"/>
+      <c r="M52" s="21"/>
     </row>
     <row r="53" spans="3:13">
-      <c r="C53" s="25"/>
-      <c r="M53" s="35"/>
+      <c r="C53" s="3"/>
+      <c r="M53" s="21"/>
     </row>
     <row r="54" spans="3:13">
-      <c r="C54" s="25"/>
-      <c r="M54" s="35"/>
+      <c r="C54" s="3"/>
+      <c r="M54" s="21"/>
     </row>
     <row r="55" spans="3:13">
-      <c r="C55" s="25"/>
-      <c r="M55" s="35"/>
+      <c r="C55" s="3"/>
+      <c r="M55" s="21"/>
     </row>
     <row r="56" spans="3:13">
-      <c r="C56" s="25"/>
-      <c r="M56" s="35"/>
+      <c r="C56" s="3"/>
+      <c r="M56" s="21"/>
     </row>
     <row r="57" spans="3:13">
-      <c r="C57" s="25"/>
-      <c r="M57" s="35"/>
+      <c r="C57" s="3"/>
+      <c r="M57" s="21"/>
     </row>
     <row r="58" spans="3:13">
-      <c r="C58" s="25"/>
-      <c r="M58" s="35"/>
+      <c r="C58" s="3"/>
+      <c r="M58" s="21"/>
     </row>
     <row r="59" spans="3:13">
-      <c r="C59" s="25"/>
-      <c r="M59" s="35"/>
+      <c r="C59" s="3"/>
+      <c r="M59" s="21"/>
     </row>
     <row r="60" spans="3:13">
-      <c r="C60" s="25"/>
-      <c r="M60" s="35"/>
+      <c r="C60" s="3"/>
+      <c r="M60" s="21"/>
     </row>
     <row r="61" spans="3:13">
-      <c r="C61" s="25"/>
-      <c r="M61" s="35"/>
+      <c r="C61" s="3"/>
+      <c r="M61" s="21"/>
     </row>
     <row r="62" spans="3:13">
-      <c r="C62" s="25"/>
-      <c r="M62" s="35"/>
+      <c r="C62" s="3"/>
+      <c r="M62" s="21"/>
     </row>
     <row r="63" spans="3:13">
-      <c r="C63" s="25"/>
-      <c r="M63" s="35"/>
+      <c r="C63" s="3"/>
+      <c r="M63" s="21"/>
     </row>
     <row r="64" spans="3:13">
-      <c r="C64" s="25"/>
-      <c r="M64" s="35"/>
+      <c r="C64" s="3"/>
+      <c r="M64" s="21"/>
     </row>
     <row r="65" spans="3:13">
-      <c r="C65" s="25"/>
-      <c r="M65" s="35"/>
+      <c r="C65" s="3"/>
+      <c r="M65" s="21"/>
     </row>
     <row r="66" spans="3:13">
-      <c r="C66" s="25"/>
-      <c r="M66" s="35"/>
+      <c r="C66" s="3"/>
+      <c r="M66" s="21"/>
     </row>
     <row r="67" spans="3:13">
-      <c r="C67" s="25"/>
-      <c r="M67" s="35"/>
+      <c r="C67" s="3"/>
+      <c r="M67" s="21"/>
     </row>
     <row r="68" spans="3:13">
-      <c r="C68" s="25"/>
-      <c r="M68" s="35"/>
+      <c r="C68" s="3"/>
+      <c r="M68" s="21"/>
     </row>
     <row r="69" spans="3:13">
-      <c r="C69" s="25"/>
-      <c r="M69" s="35"/>
+      <c r="C69" s="3"/>
+      <c r="M69" s="21"/>
     </row>
     <row r="70" spans="3:13">
-      <c r="C70" s="25"/>
-      <c r="M70" s="35"/>
+      <c r="C70" s="3"/>
+      <c r="M70" s="21"/>
     </row>
     <row r="71" spans="3:13">
-      <c r="C71" s="25"/>
-      <c r="M71" s="35"/>
+      <c r="C71" s="3"/>
+      <c r="M71" s="21"/>
     </row>
     <row r="72" spans="3:13">
-      <c r="C72" s="25"/>
-      <c r="M72" s="35"/>
+      <c r="C72" s="3"/>
+      <c r="M72" s="21"/>
     </row>
     <row r="73" spans="3:13">
-      <c r="C73" s="25"/>
-      <c r="M73" s="35"/>
+      <c r="C73" s="3"/>
+      <c r="M73" s="21"/>
     </row>
     <row r="74" spans="3:13">
-      <c r="C74" s="25"/>
-      <c r="M74" s="35"/>
+      <c r="C74" s="3"/>
+      <c r="M74" s="21"/>
     </row>
     <row r="75" spans="3:13">
-      <c r="C75" s="25"/>
-      <c r="M75" s="35"/>
+      <c r="C75" s="3"/>
+      <c r="M75" s="21"/>
     </row>
     <row r="76" spans="3:13">
-      <c r="C76" s="25"/>
-      <c r="M76" s="35"/>
+      <c r="C76" s="3"/>
+      <c r="M76" s="21"/>
     </row>
     <row r="77" spans="3:13">
-      <c r="C77" s="25"/>
-      <c r="M77" s="35"/>
+      <c r="C77" s="3"/>
+      <c r="M77" s="21"/>
     </row>
     <row r="78" spans="3:13">
-      <c r="C78" s="25"/>
-      <c r="M78" s="35"/>
+      <c r="C78" s="3"/>
+      <c r="M78" s="21"/>
     </row>
     <row r="79" spans="3:13">
-      <c r="C79" s="25"/>
-      <c r="M79" s="35"/>
+      <c r="C79" s="3"/>
+      <c r="M79" s="21"/>
     </row>
     <row r="80" spans="3:13">
-      <c r="C80" s="25"/>
-      <c r="M80" s="35"/>
+      <c r="C80" s="3"/>
+      <c r="M80" s="21"/>
     </row>
     <row r="81" spans="3:13">
-      <c r="C81" s="25"/>
-      <c r="M81" s="35"/>
+      <c r="C81" s="3"/>
+      <c r="M81" s="21"/>
     </row>
     <row r="82" spans="3:13">
-      <c r="C82" s="25"/>
-      <c r="M82" s="35"/>
+      <c r="C82" s="3"/>
+      <c r="M82" s="21"/>
     </row>
     <row r="83" spans="3:13">
-      <c r="C83" s="25"/>
-      <c r="M83" s="35"/>
+      <c r="C83" s="3"/>
+      <c r="M83" s="21"/>
     </row>
     <row r="84" spans="3:13">
-      <c r="C84" s="25"/>
-      <c r="M84" s="35"/>
+      <c r="C84" s="3"/>
+      <c r="M84" s="21"/>
     </row>
     <row r="85" spans="3:13">
-      <c r="C85" s="25"/>
-      <c r="M85" s="35"/>
+      <c r="C85" s="3"/>
+      <c r="M85" s="21"/>
     </row>
     <row r="86" spans="3:13">
-      <c r="C86" s="25"/>
-      <c r="M86" s="35"/>
+      <c r="C86" s="3"/>
+      <c r="M86" s="21"/>
     </row>
     <row r="87" spans="3:13">
-      <c r="C87" s="25"/>
-      <c r="M87" s="35"/>
+      <c r="C87" s="3"/>
+      <c r="M87" s="21"/>
     </row>
     <row r="88" spans="3:13">
-      <c r="C88" s="25"/>
-      <c r="M88" s="35"/>
+      <c r="C88" s="3"/>
+      <c r="M88" s="21"/>
     </row>
     <row r="89" ht="14.25" spans="3:13">
-      <c r="C89" s="38"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="40"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2600,10 +2591,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:L26"/>
+  <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2629,7 +2620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
@@ -2639,214 +2630,228 @@
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="4"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:5">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:3">
-      <c r="B6" t="s">
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:11">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="7" ht="14.25" spans="2:3">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="4"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="11" ht="14.25" spans="2:3">
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="9" t="s">
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="12" ht="14.25" spans="2:3">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" ht="14.25" spans="2:12">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="2:6">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="16" ht="14.25" spans="2:3">
       <c r="B16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="2:8">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="21" ht="14.25" spans="2:3">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="2:4">
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="2:6">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="20" ht="14.25" spans="2:3">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="D22" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="2:7">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="8"/>
     </row>
     <row r="25" ht="14.25" spans="2:3">
       <c r="B25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="2:4">
-      <c r="B26" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>56</v>
-      </c>
+      <c r="C26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="2:4">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2858,14 +2863,271 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="14.25" spans="2:3">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:11">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="7" ht="14.25" spans="2:3">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:12">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="12" customFormat="1" ht="14.25" spans="2:3">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="14.25" spans="2:6">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1" ht="14.25" spans="2:3">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="2:8">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1" ht="14.25" spans="2:3">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="14.25" spans="2:4">
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1" ht="14.25" spans="2:3">
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="2:4">
+      <c r="B26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="14.25" spans="2:4">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
